--- a/ответы + участники.xlsx
+++ b/ответы + участники.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\event\OneDrive\Рабочий стол\QUIZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FEECD9-FDD6-43F8-BBEA-B15300CEAA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07367F16-DB7D-44DC-8719-7BD625CF09E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ответы" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
   <si>
     <t>Раунд 1</t>
   </si>
@@ -158,13 +158,52 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>Раунд 8</t>
+  </si>
+  <si>
+    <t>Раунд 9</t>
+  </si>
+  <si>
+    <t>Раунд 10</t>
+  </si>
+  <si>
+    <t>Майонез</t>
+  </si>
+  <si>
+    <t>Тюмень</t>
+  </si>
+  <si>
+    <t>Комсомольская</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>Ока</t>
+  </si>
+  <si>
+    <t>Пушкин</t>
+  </si>
+  <si>
+    <t>Ватикан</t>
+  </si>
+  <si>
+    <t>Доширак</t>
+  </si>
+  <si>
+    <t>син. жел. бел</t>
+  </si>
+  <si>
+    <t>А</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +230,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -310,21 +364,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -455,17 +494,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -521,120 +549,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,7 +698,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,7 +707,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,7 +725,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,18 +734,29 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -699,9 +765,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF66FFCC"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFF9999"/>
+      <color rgb="FF66FFCC"/>
       <color rgb="FF9999FF"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
@@ -983,10 +1049,10 @@
   <sheetPr>
     <tabColor rgb="FFCCFF99"/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,9 +1069,12 @@
     <col min="14" max="14" width="4.77734375" customWidth="1"/>
     <col min="15" max="15" width="15.77734375" customWidth="1"/>
     <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="4.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" customWidth="1"/>
+    <col min="20" max="20" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1022,36 +1091,46 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1092,227 +1171,287 @@
       <c r="P3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="44" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="44" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="19">
+      <c r="J4" s="15">
         <v>1</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="44" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="19">
+      <c r="N4" s="15">
         <v>1</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>2</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="19">
+      <c r="J5" s="15">
         <v>2</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="46"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="19">
+      <c r="N5" s="15">
         <v>2</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="15">
+        <v>2</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="44"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>3</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="19">
+      <c r="J6" s="15">
         <v>3</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="46"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="19">
+      <c r="N6" s="15">
         <v>3</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="44"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="15">
+        <v>3</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="44"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>4</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="19">
+      <c r="J7" s="15">
         <v>4</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="46"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="19">
+      <c r="N7" s="15">
         <v>4</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="15">
+        <v>4</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="44"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>5</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="19">
+      <c r="J8" s="15">
         <v>5</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="19">
+      <c r="N8" s="15">
         <v>5</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="44"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="15">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <v>6</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="66">
+      <c r="F9" s="38">
         <v>6</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="47"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="66">
+      <c r="J9" s="38">
         <v>6</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="47"/>
+      <c r="L9" s="45"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="68">
+      <c r="N9" s="40">
         <v>6</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="45"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="38">
+        <v>6</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="45"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1329,9 +1468,13 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1348,38 +1491,46 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
+      <c r="F12" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
+      <c r="J12" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N12" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="42"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -1411,256 +1562,424 @@
         <v>3</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="15">
+      <c r="N13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O13" s="16">
-        <v>6</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="19">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>7</v>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="46" t="s">
+      <c r="G14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="15">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="44" t="s">
         <v>17</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="19">
-        <v>1</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>38</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="15">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="15">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="O14" s="16">
-        <v>5</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="19">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="46"/>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="44"/>
       <c r="E15" s="4"/>
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="13">
-        <v>3</v>
-      </c>
-      <c r="H15" s="46"/>
+      <c r="G15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="44"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="19">
+      <c r="J15" s="15">
         <v>2</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="46"/>
+      <c r="K15" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="44"/>
       <c r="M15" s="4"/>
       <c r="N15" s="15">
+        <v>2</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="15">
+        <v>2</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="44"/>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="O15" s="16">
-        <v>10</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="19">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="46"/>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="44"/>
       <c r="E16" s="4"/>
       <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="46"/>
+      <c r="G16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="44"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="19">
+      <c r="J16" s="15">
         <v>3</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="46"/>
+      <c r="K16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="44"/>
       <c r="M16" s="4"/>
       <c r="N16" s="15">
+        <v>3</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="15">
+        <v>3</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="44"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="O16" s="16">
-        <v>12</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="19">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="46"/>
+      <c r="C17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="44"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="46"/>
+      <c r="G17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="44"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="19">
+      <c r="J17" s="15">
         <v>4</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="46"/>
+      <c r="K17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="44"/>
       <c r="M17" s="4"/>
       <c r="N17" s="15">
+        <v>4</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="15">
+        <v>4</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="44"/>
+      <c r="U17" s="10"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="O17" s="16">
-        <v>5</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="19">
-        <v>5</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="46"/>
+      <c r="C18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="44"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="46"/>
+      <c r="G18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="44"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="67">
+      <c r="J18" s="69">
         <v>5</v>
       </c>
-      <c r="K18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="46"/>
+      <c r="K18" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="44"/>
       <c r="M18" s="4"/>
       <c r="N18" s="15">
+        <v>5</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="39">
+        <v>5</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="44"/>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="19">
         <v>6</v>
       </c>
-      <c r="O18" s="16">
+      <c r="C19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="67">
+        <v>6</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="38">
+        <v>6</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="45"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="38">
+        <v>6</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="38">
+        <v>6</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="45"/>
+      <c r="U19" s="10"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="65"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C26" s="13">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14">
         <v>10</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="66">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C27" s="13">
+        <v>4</v>
+      </c>
+      <c r="D27" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C28" s="13">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C29" s="13">
         <v>6</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="23">
+      <c r="D29" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C30" s="13">
+        <v>7</v>
+      </c>
+      <c r="D30" s="14">
         <v>6</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="66">
-        <v>6</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="17">
-        <v>7</v>
-      </c>
-      <c r="O19" s="18">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C31" s="13">
+        <v>8</v>
+      </c>
+      <c r="D31" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C32" s="13">
+        <v>9</v>
+      </c>
+      <c r="D32" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="71">
+        <v>10</v>
+      </c>
+      <c r="D33" s="72">
         <v>12</v>
       </c>
-      <c r="P19" s="27">
-        <f>SUM(O13:O19)</f>
-        <v>60</v>
-      </c>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="34" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="74">
+        <f>SUM(D24:D33)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="T14:T19"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="P4:P9"/>
     <mergeCell ref="B12:D12"/>
@@ -1675,6 +1994,8 @@
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="L4:L9"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="P14:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1686,16 +2007,16 @@
   <sheetPr>
     <tabColor rgb="FF66FFCC"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="23" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
     <col min="7" max="7" width="25.77734375" customWidth="1"/>
@@ -1703,254 +2024,323 @@
     <col min="11" max="11" width="25.77734375" customWidth="1"/>
     <col min="13" max="13" width="25.77734375" customWidth="1"/>
     <col min="15" max="15" width="25.77734375" customWidth="1"/>
+    <col min="17" max="17" width="25.77734375" customWidth="1"/>
+    <col min="19" max="19" width="25.77734375" customWidth="1"/>
+    <col min="21" max="21" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+    <row r="2" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="35">
-        <f>SUM(D2,F2,H2,J2,L2,N2,P2)</f>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="30">
+        <f>SUM(D2,F2,H2,J2,L2,N2,P2,R2,T2,V2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32">
+    <row r="3" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="35">
-        <f>SUM(Q2,D3,F3,H3,J3,L3,N3,P3)</f>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="30">
+        <f>SUM(W2,D3,F3,H3,J3,L3,N3,P3,R3,T3,V3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+    <row r="4" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="35">
-        <f>SUM(Q2:Q3,D4,F4,H4,J4,L4,N4,P4)</f>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="30">
+        <f>SUM(W2:W3,D4,F4,H4,J4,L4,N4,P4,R4,T4,V4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+    <row r="5" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="35">
-        <f>SUM(Q2:Q4,D5,F5,H5,J5,L5,N5,P5)</f>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="30">
+        <f>SUM(W2:W4,D5,F5,H5,J5,L5,N5,P5,R5,T5,V5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+    <row r="6" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="35">
-        <f>SUM(Q2:Q5,D6,F6,H6,J6,L6,N6,P6)</f>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="30">
+        <f>SUM(W2:W5,D6,F6,H6,J6,L6,N6,P6,R6,T6,V6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+    <row r="7" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="35">
-        <f>SUM(Q2:Q6,D7,F7,H7,J7,L7,N7,P7)</f>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="30">
+        <f>SUM(W2:W6,D7,F7,H7,J7,L7,N7,P7,R7,T7,V7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+    <row r="8" spans="1:23" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="35">
-        <f>SUM(Q2:Q7,D8,F8,H8,J8,L8,N8,P8)</f>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="30">
+        <f>SUM(W2:W7,D8,F8,H8,J8,L8,N8,P8,R8,T8,V8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36">
+    <row r="9" spans="1:23" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="39">
-        <f>SUM(Q2:Q8,D9,F9,H9,J9,L9,N9,P9)</f>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="34">
+        <f>SUM(W2:W8,D9,F9,H9,J9,L9,N9,P9,R9,T9,V9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
